--- a/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
+++ b/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="DANH SÁCH SINH VIÊN" sheetId="1" r:id="rId4"/>
+    <sheet name="KẾT QUẢ KHÓA HỌC" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>DANH SÁCH SINH VIÊN Lập trình căn bản</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>TOP 5 SINH VIÊN ƯU TÚ CỦA KHÓA HỌC Lập trình căn bản</t>
   </si>
   <si>
     <t>STT</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>ĐIỂM</t>
   </si>
   <si>
     <t>GHI CHÚ</t>
@@ -454,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,10 +474,11 @@
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +491,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -499,8 +504,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -511,8 +517,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,20 +550,24 @@
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -564,32 +575,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A1:K3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -600,6 +614,7 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
+++ b/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="KẾT QUẢ KHÓA HỌC" sheetId="1" r:id="rId4"/>
+    <sheet name="DANH SÁCH SINH VIÊN" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
-    <t>TOP 5 SINH VIÊN ƯU TÚ CỦA KHÓA HỌC Lập trình căn bản</t>
+    <t>DANH SÁCH SINH VIÊN ĐẠT KHÓA HỌC Lập trình căn bản</t>
   </si>
   <si>
     <t>STT</t>
@@ -474,7 +474,7 @@
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -596,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4"/>
     </row>

--- a/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
+++ b/admin/export/DANH SÃCH SINH VIÃŠN KHÃ“A Há»ŒC .xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>DANH SÁCH SINH VIÊN ĐẠT KHÓA HỌC Lập trình căn bản</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>DANH SÁCH SINH VIÊN Lập trình căn bản</t>
   </si>
   <si>
     <t>STT</t>
@@ -47,28 +47,25 @@
     <t>ĐỊA CHỈ</t>
   </si>
   <si>
-    <t>ĐIỂM</t>
-  </si>
-  <si>
     <t>GHI CHÚ</t>
   </si>
   <si>
     <t>Nguyễn Hoàng</t>
   </si>
   <si>
-    <t>Phương</t>
+    <t>Anh</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>1995-11-29</t>
-  </si>
-  <si>
-    <t>hoangphuong@gmail.com</t>
-  </si>
-  <si>
-    <t>0123456789</t>
+    <t>1995-12-09</t>
+  </si>
+  <si>
+    <t>hoanganh@gmail.com</t>
+  </si>
+  <si>
+    <t>0909981928</t>
   </si>
   <si>
     <t>Vĩnh Long</t>
@@ -457,10 +454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,17 +465,16 @@
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,9 +487,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -504,9 +499,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -517,9 +511,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -550,60 +543,53 @@
       <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -614,7 +600,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
